--- a/biology/Zoologie/Batrachedridae/Batrachedridae.xlsx
+++ b/biology/Zoologie/Batrachedridae/Batrachedridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Batrachedridae sont une famille de lépidoptères de la super-famille des Gelechioidea. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,24 +551,61 @@
           <t>Historique et classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Batrachedridae a été initialement publiée en 1876 par les entomologistes allemands Hermann von Heinemann et Maximilian Ferdinand Wocke (de)[1], à l'époque sous le nom de Batrachedrae, qui est le pluriel du nom de son genre type Batrachedra.
-La position taxinomique de cette famille est discutée[réf. souhaitée]. Sa composition l'est également : en fonction des sources, elle engloberait jusqu'à 10 genres[2] et jusqu'à 140 espèces[3].
-Listes des genres et sous-familles
-Selon BioLib                    (4 novembre 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Batrachedridae a été initialement publiée en 1876 par les entomologistes allemands Hermann von Heinemann et Maximilian Ferdinand Wocke (de), à l'époque sous le nom de Batrachedrae, qui est le pluriel du nom de son genre type Batrachedra.
+La position taxinomique de cette famille est discutée[réf. souhaitée]. Sa composition l'est également : en fonction des sources, elle engloberait jusqu'à 10 genres et jusqu'à 140 espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Batrachedridae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Batrachedridae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Listes des genres et sous-familles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (4 novembre 2018) :
 genre Batrachedra Herrich-Schäffer, 1853
 genre Batrachedrodes Zimmerman, 1978
 genre Corythangela Meyrick, 1897
-Selon ITIS      (4 novembre 2018)[5] :
+Selon ITIS      (4 novembre 2018) :
 sous-famille Batrachedrinae
 genre Homaledra Busck, 1900
-Selon NCBI  (4 novembre 2018)[6] :
+Selon NCBI  (4 novembre 2018) :
 sous-famille Batrachedrinae
 genre Batrachedra
 genre Duospina
 genre Homaledra
-Selon FUNET Tree of Life  (9 novembre 2018)[3] :
+Selon FUNET Tree of Life  (9 novembre 2018) :
 genre Batrachedra Herrich-Schäffer, 1853
 genre Chedra Hodges, 1966
 genre Corythangela Meyrick, 1897
@@ -562,7 +613,7 @@
 genre Enscepastra Meyrick, 1920
 genre Idioglossa Walsingham, 1881
 genre Ifeda Hodges, 1966
-En 2006, le nouveau genre Houdinia Hoare, Dugdale &amp; Watts, 2006 a été également été placé dans cette famille[7].
+En 2006, le nouveau genre Houdinia Hoare, Dugdale &amp; Watts, 2006 a été également été placé dans cette famille.
 </t>
         </is>
       </c>
